--- a/Resource/excel/relation.xlsx
+++ b/Resource/excel/relation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\server\KFrame\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\job\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>FriendMaxCount</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -358,6 +358,14 @@
   </si>
   <si>
     <t>最大好友度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大最近玩家列表数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxRecentList</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -851,11 +859,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -874,7 +882,7 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,8 +916,11 @@
       <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
@@ -943,9 +954,12 @@
       <c r="L2" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
         <v>10</v>
@@ -980,41 +994,44 @@
       <c r="L4" s="2">
         <v>999</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M4" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
